--- a/DSA/DSA_List/DSA March_FJP-7.xlsx
+++ b/DSA/DSA_List/DSA March_FJP-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit\git\DSA\DSA\DSA_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2FE586-1F6A-4ADC-9FEA-510E1C6DC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D18070-4837-4D40-986C-AB5F67A4C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="482">
   <si>
     <t>Basics , 24th March 2022</t>
   </si>
@@ -1440,9 +1440,6 @@
 reverse</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
@@ -1477,6 +1474,42 @@
   </si>
   <si>
     <t>ReverseLinkedListPointerIterative</t>
+  </si>
+  <si>
+    <t>/DSA/src/Basics/Basic_26thMarch2022.java</t>
+  </si>
+  <si>
+    <t>Git Status</t>
+  </si>
+  <si>
+    <t>Nados/Leetcode/GFG Status</t>
+  </si>
+  <si>
+    <t>Commited</t>
+  </si>
+  <si>
+    <t>/DSA/src/Basics/Basic_29thMarch2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern1_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern4_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern8_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern2_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern3_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern9_9thApril2023.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern7_9thApril2024.java</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1658,8 +1691,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,6 +1761,12 @@
         <bgColor rgb="FFF9F9F9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1749,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1840,6 +1887,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2059,22 +2111,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E235" sqref="E235"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="42.08984375" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="4" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="15.5">
+    <row r="1" spans="1:8" s="47" customFormat="1" ht="15.5">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -2082,13 +2136,16 @@
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="F1" s="46" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2099,9 +2156,10 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G2" s="18"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2114,9 +2172,10 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G3" s="18"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -2127,9 +2186,10 @@
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G4" s="18"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2140,9 +2200,10 @@
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G5" s="18"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -2153,9 +2214,10 @@
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G6" s="18"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="17" t="s">
         <v>8</v>
       </c>
@@ -2166,9 +2228,10 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G7" s="18"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
@@ -2179,9 +2242,10 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G8" s="18"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
@@ -2192,9 +2256,10 @@
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G9" s="18"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
@@ -2207,17 +2272,19 @@
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G10" s="18"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="13">
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="13">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2226,8 +2293,9 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
@@ -2238,9 +2306,10 @@
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G13" s="18"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -2251,62 +2320,85 @@
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="17" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="17" t="s">
+      <c r="D15" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="D16" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E17" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>470</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="13">
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="13">
       <c r="A19" s="20" t="s">
         <v>23</v>
       </c>
@@ -2315,21 +2407,29 @@
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="12.5">
+      <c r="D20" s="49"/>
+      <c r="E20" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="13">
       <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2340,9 +2440,10 @@
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.5">
+      <c r="G21" s="58"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="13">
       <c r="A22" s="21" t="s">
         <v>28</v>
       </c>
@@ -2353,18 +2454,20 @@
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.5">
+      <c r="G22" s="58"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="13">
+      <c r="G23" s="22"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="13">
       <c r="A24" s="24" t="s">
         <v>30</v>
       </c>
@@ -2373,9 +2476,10 @@
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.5">
+      <c r="G24" s="22"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
@@ -2388,9 +2492,10 @@
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.5">
+      <c r="G25" s="22"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="18" t="s">
         <v>33</v>
       </c>
@@ -2403,9 +2508,10 @@
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.5">
+      <c r="G26" s="18"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="18" t="s">
         <v>35</v>
       </c>
@@ -2418,9 +2524,10 @@
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.5">
+      <c r="G27" s="18"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="18" t="s">
         <v>37</v>
       </c>
@@ -2433,25 +2540,28 @@
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G28" s="18"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.5">
+      <c r="G29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="18"/>
       <c r="B30" s="16"/>
       <c r="C30" s="18"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.5">
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.5">
       <c r="A31" s="18" t="s">
         <v>39</v>
       </c>
@@ -2462,8 +2572,9 @@
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.5">
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="18" t="s">
         <v>41</v>
       </c>
@@ -2474,16 +2585,18 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="13">
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="13">
       <c r="A34" s="25" t="s">
         <v>43</v>
       </c>
@@ -2492,113 +2605,163 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.5">
-      <c r="A35" s="18" t="s">
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.5">
-      <c r="A36" s="17" t="s">
+      <c r="D35" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F35" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="50"/>
+      <c r="C36" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.5">
-      <c r="A37" s="17" t="s">
+      <c r="D36" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="50"/>
+      <c r="C37" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.5">
-      <c r="A38" s="17" t="s">
+      <c r="D37" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="50"/>
+      <c r="C38" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.5">
-      <c r="A39" s="17" t="s">
+      <c r="E38" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F38" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G38" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.5">
-      <c r="A40" s="17" t="s">
+      <c r="D39" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.5">
-      <c r="A41" s="17" t="s">
+      <c r="E40" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F40" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.5">
+      <c r="E41" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.5">
       <c r="A42" s="17" t="s">
         <v>58</v>
       </c>
@@ -2611,9 +2774,10 @@
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.5">
+      <c r="G42" s="18"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.5">
       <c r="A43" s="17" t="s">
         <v>60</v>
       </c>
@@ -2626,17 +2790,19 @@
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G43" s="18"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" ht="13">
+      <c r="G44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" ht="13">
       <c r="A45" s="25" t="s">
         <v>62</v>
       </c>
@@ -2645,8 +2811,9 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.5">
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.5">
       <c r="A46" s="18" t="s">
         <v>63</v>
       </c>
@@ -2659,9 +2826,10 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.5">
+      <c r="G46" s="18"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.5">
       <c r="A47" s="18" t="s">
         <v>65</v>
       </c>
@@ -2674,9 +2842,10 @@
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.5">
+      <c r="G47" s="18"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.5">
       <c r="A48" s="18" t="s">
         <v>67</v>
       </c>
@@ -2689,17 +2858,19 @@
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G48" s="18"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="13">
+      <c r="G49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" ht="13">
       <c r="A50" s="15" t="s">
         <v>69</v>
       </c>
@@ -2708,8 +2879,9 @@
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.5">
+      <c r="G50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.5">
       <c r="A51" s="18" t="s">
         <v>70</v>
       </c>
@@ -2722,9 +2894,10 @@
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="12.5">
+      <c r="G51" s="18"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.5">
       <c r="A52" s="18" t="s">
         <v>72</v>
       </c>
@@ -2737,9 +2910,10 @@
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="12.5">
+      <c r="G52" s="18"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.5">
       <c r="A53" s="18" t="s">
         <v>74</v>
       </c>
@@ -2752,9 +2926,10 @@
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="12.5">
+      <c r="G53" s="18"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.5">
       <c r="A54" s="18" t="s">
         <v>76</v>
       </c>
@@ -2767,9 +2942,10 @@
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.5">
+      <c r="G54" s="18"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.5">
       <c r="A55" s="18" t="s">
         <v>78</v>
       </c>
@@ -2782,9 +2958,10 @@
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-      <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.5">
+      <c r="G55" s="18"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="12.5">
       <c r="A56" s="18" t="s">
         <v>80</v>
       </c>
@@ -2797,17 +2974,19 @@
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
-      <c r="G56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G56" s="18"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="13">
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" ht="13">
       <c r="A58" s="25" t="s">
         <v>82</v>
       </c>
@@ -2816,8 +2995,9 @@
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="12.5">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:8" ht="12.5">
       <c r="A59" s="18" t="s">
         <v>83</v>
       </c>
@@ -2830,9 +3010,10 @@
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="12.5">
+      <c r="G59" s="18"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="12.5">
       <c r="A60" s="17" t="s">
         <v>85</v>
       </c>
@@ -2843,8 +3024,9 @@
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.5">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:8" ht="12.5">
       <c r="A61" s="17" t="s">
         <v>87</v>
       </c>
@@ -2853,16 +3035,18 @@
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" ht="13">
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" ht="13">
       <c r="A63" s="15" t="s">
         <v>88</v>
       </c>
@@ -2871,8 +3055,9 @@
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:7" ht="12.5">
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:8" ht="12.5">
       <c r="A64" s="18" t="s">
         <v>89</v>
       </c>
@@ -2885,9 +3070,10 @@
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" ht="12.5">
+      <c r="G64" s="18"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="12.5">
       <c r="A65" s="18" t="s">
         <v>91</v>
       </c>
@@ -2898,9 +3084,10 @@
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="18"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="1:7" ht="12.5">
+      <c r="G65" s="18"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="12.5">
       <c r="A66" s="18" t="s">
         <v>92</v>
       </c>
@@ -2911,9 +3098,10 @@
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7" ht="12.5">
+      <c r="G66" s="18"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="12.5">
       <c r="A67" s="18" t="s">
         <v>93</v>
       </c>
@@ -2926,9 +3114,10 @@
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="18"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7" ht="12.5">
+      <c r="G67" s="18"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="12.5">
       <c r="A68" s="18" t="s">
         <v>95</v>
       </c>
@@ -2941,9 +3130,10 @@
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="18"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7" ht="12.5">
+      <c r="G68" s="18"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="12.5">
       <c r="A69" s="18" t="s">
         <v>98</v>
       </c>
@@ -2956,17 +3146,19 @@
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G69" s="18"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="13">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:8" ht="13">
       <c r="A71" s="15" t="s">
         <v>100</v>
       </c>
@@ -2975,8 +3167,9 @@
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:7" ht="12.5">
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:8" ht="12.5">
       <c r="A72" s="18" t="s">
         <v>101</v>
       </c>
@@ -2989,9 +3182,10 @@
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7" ht="12.5">
+      <c r="G72" s="18"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="12.5">
       <c r="A73" s="18" t="s">
         <v>103</v>
       </c>
@@ -3004,9 +3198,10 @@
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7" ht="12.5">
+      <c r="G73" s="18"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="12.5">
       <c r="A74" s="18" t="s">
         <v>105</v>
       </c>
@@ -3019,9 +3214,10 @@
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" ht="12.5">
+      <c r="G74" s="18"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="12.5">
       <c r="A75" s="17" t="s">
         <v>107</v>
       </c>
@@ -3034,17 +3230,19 @@
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G75" s="18"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:7" ht="13">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:8" ht="13">
       <c r="A77" s="15" t="s">
         <v>109</v>
       </c>
@@ -3053,8 +3251,9 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:7" ht="12.5">
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:8" ht="12.5">
       <c r="A78" s="18" t="s">
         <v>110</v>
       </c>
@@ -3067,9 +3266,10 @@
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="18"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" ht="12.5">
+      <c r="G78" s="18"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="12.5">
       <c r="A79" s="18" t="s">
         <v>112</v>
       </c>
@@ -3082,9 +3282,10 @@
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="1"/>
-    </row>
-    <row r="80" spans="1:7" ht="12.5">
+      <c r="G79" s="18"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="12.5">
       <c r="A80" s="18" t="s">
         <v>114</v>
       </c>
@@ -3095,8 +3296,9 @@
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:7" ht="12.5">
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:8" ht="12.5">
       <c r="A81" s="18" t="s">
         <v>116</v>
       </c>
@@ -3109,17 +3311,19 @@
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
-      <c r="G81" s="1"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G81" s="18"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:7" ht="13">
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:8" ht="13">
       <c r="A83" s="25" t="s">
         <v>118</v>
       </c>
@@ -3128,8 +3332,9 @@
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:7" ht="12.5">
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:8" ht="12.5">
       <c r="A84" s="18" t="s">
         <v>119</v>
       </c>
@@ -3140,9 +3345,10 @@
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="18"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="1:7" ht="12.5">
+      <c r="G84" s="18"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="12.5">
       <c r="A85" s="18" t="s">
         <v>120</v>
       </c>
@@ -3155,9 +3361,10 @@
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="18"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="1:7" ht="12.5">
+      <c r="G85" s="18"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="12.5">
       <c r="A86" s="18" t="s">
         <v>122</v>
       </c>
@@ -3170,9 +3377,10 @@
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="18"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" ht="12.5">
+      <c r="G86" s="18"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="12.5">
       <c r="A87" s="17" t="s">
         <v>124</v>
       </c>
@@ -3185,9 +3393,10 @@
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="1:7" ht="12.5">
+      <c r="G87" s="18"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="12.5">
       <c r="A88" s="18" t="s">
         <v>126</v>
       </c>
@@ -3200,17 +3409,19 @@
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="18"/>
-      <c r="G88" s="1"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G88" s="18"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
-    </row>
-    <row r="90" spans="1:7" ht="13">
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:8" ht="13">
       <c r="A90" s="15" t="s">
         <v>129</v>
       </c>
@@ -3219,8 +3430,9 @@
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
-    </row>
-    <row r="91" spans="1:7" ht="12.5">
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:8" ht="12.5">
       <c r="A91" s="18" t="s">
         <v>130</v>
       </c>
@@ -3233,9 +3445,10 @@
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="18"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" ht="12.5">
+      <c r="G91" s="18"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="12.5">
       <c r="A92" s="18" t="s">
         <v>132</v>
       </c>
@@ -3248,9 +3461,10 @@
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="18"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="1:7" ht="12.5">
+      <c r="G92" s="18"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" ht="12.5">
       <c r="A93" s="18" t="s">
         <v>134</v>
       </c>
@@ -3263,17 +3477,19 @@
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
-      <c r="G93" s="1"/>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G93" s="18"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
-    </row>
-    <row r="95" spans="1:7" ht="13">
+      <c r="G94" s="16"/>
+    </row>
+    <row r="95" spans="1:8" ht="13">
       <c r="A95" s="15" t="s">
         <v>136</v>
       </c>
@@ -3282,8 +3498,9 @@
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:7" ht="12.5">
+      <c r="G95" s="16"/>
+    </row>
+    <row r="96" spans="1:8" ht="12.5">
       <c r="A96" s="18" t="s">
         <v>137</v>
       </c>
@@ -3296,9 +3513,10 @@
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="1:7" ht="12.5">
+      <c r="G96" s="18"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" ht="12.5">
       <c r="A97" s="18" t="s">
         <v>139</v>
       </c>
@@ -3311,9 +3529,10 @@
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="18"/>
-      <c r="G97" s="1"/>
-    </row>
-    <row r="98" spans="1:7" ht="12.5">
+      <c r="G97" s="18"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" ht="12.5">
       <c r="A98" s="18" t="s">
         <v>141</v>
       </c>
@@ -3326,17 +3545,19 @@
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
-      <c r="G98" s="1"/>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G98" s="18"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
-    </row>
-    <row r="100" spans="1:7" ht="13">
+      <c r="G99" s="16"/>
+    </row>
+    <row r="100" spans="1:8" ht="13">
       <c r="A100" s="25" t="s">
         <v>143</v>
       </c>
@@ -3345,8 +3566,9 @@
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
-    </row>
-    <row r="101" spans="1:7" ht="12.5">
+      <c r="G100" s="16"/>
+    </row>
+    <row r="101" spans="1:8" ht="12.5">
       <c r="A101" s="18" t="s">
         <v>144</v>
       </c>
@@ -3359,9 +3581,10 @@
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
-      <c r="G101" s="1"/>
-    </row>
-    <row r="102" spans="1:7" ht="12.5">
+      <c r="G101" s="18"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" ht="12.5">
       <c r="A102" s="18" t="s">
         <v>146</v>
       </c>
@@ -3374,9 +3597,10 @@
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="18"/>
-      <c r="G102" s="1"/>
-    </row>
-    <row r="103" spans="1:7" ht="12.5">
+      <c r="G102" s="18"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" ht="12.5">
       <c r="A103" s="18" t="s">
         <v>147</v>
       </c>
@@ -3389,9 +3613,10 @@
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="18"/>
-      <c r="G103" s="1"/>
-    </row>
-    <row r="104" spans="1:7" ht="12.5">
+      <c r="G103" s="18"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" ht="12.5">
       <c r="A104" s="18" t="s">
         <v>149</v>
       </c>
@@ -3404,9 +3629,10 @@
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:7" ht="12.5">
+      <c r="G104" s="18"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" ht="12.5">
       <c r="A105" s="18" t="s">
         <v>150</v>
       </c>
@@ -3419,9 +3645,10 @@
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
-      <c r="G105" s="1"/>
-    </row>
-    <row r="106" spans="1:7" ht="12.5">
+      <c r="G105" s="18"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" ht="12.5">
       <c r="A106" s="18" t="s">
         <v>152</v>
       </c>
@@ -3434,9 +3661,10 @@
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="18"/>
-      <c r="G106" s="1"/>
-    </row>
-    <row r="107" spans="1:7" ht="12.5">
+      <c r="G106" s="18"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" ht="12.5">
       <c r="A107" s="18" t="s">
         <v>154</v>
       </c>
@@ -3449,9 +3677,10 @@
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="18"/>
-      <c r="G107" s="1"/>
-    </row>
-    <row r="108" spans="1:7" ht="25">
+      <c r="G107" s="18"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" ht="25">
       <c r="A108" s="28" t="s">
         <v>156</v>
       </c>
@@ -3464,18 +3693,20 @@
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="18"/>
-      <c r="G108" s="1"/>
-    </row>
-    <row r="109" spans="1:7" ht="12.5">
+      <c r="G108" s="18"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" ht="12.5">
       <c r="A109" s="18"/>
       <c r="B109" s="16"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
       <c r="F109" s="18"/>
-      <c r="G109" s="1"/>
-    </row>
-    <row r="110" spans="1:7" ht="13">
+      <c r="G109" s="18"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" ht="13">
       <c r="A110" s="15" t="s">
         <v>158</v>
       </c>
@@ -3484,9 +3715,10 @@
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
-      <c r="G110" s="1"/>
-    </row>
-    <row r="111" spans="1:7" ht="12.5">
+      <c r="G110" s="18"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" ht="12.5">
       <c r="A111" s="18" t="s">
         <v>159</v>
       </c>
@@ -3499,9 +3731,10 @@
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="18"/>
-      <c r="G111" s="1"/>
-    </row>
-    <row r="112" spans="1:7" ht="12.5">
+      <c r="G111" s="18"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="12.5">
       <c r="A112" s="18" t="s">
         <v>160</v>
       </c>
@@ -3510,8 +3743,9 @@
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
-    </row>
-    <row r="113" spans="1:7" ht="12.5">
+      <c r="G112" s="16"/>
+    </row>
+    <row r="113" spans="1:8" ht="12.5">
       <c r="A113" s="18" t="s">
         <v>161</v>
       </c>
@@ -3520,8 +3754,9 @@
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
-    </row>
-    <row r="114" spans="1:7" ht="12.5">
+      <c r="G113" s="16"/>
+    </row>
+    <row r="114" spans="1:8" ht="12.5">
       <c r="A114" s="18" t="s">
         <v>162</v>
       </c>
@@ -3530,8 +3765,9 @@
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
-    </row>
-    <row r="115" spans="1:7" ht="12.5">
+      <c r="G114" s="16"/>
+    </row>
+    <row r="115" spans="1:8" ht="12.5">
       <c r="A115" s="18" t="s">
         <v>163</v>
       </c>
@@ -3540,8 +3776,9 @@
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
-    </row>
-    <row r="116" spans="1:7" ht="12.5">
+      <c r="G115" s="16"/>
+    </row>
+    <row r="116" spans="1:8" ht="12.5">
       <c r="A116" s="18" t="s">
         <v>164</v>
       </c>
@@ -3550,8 +3787,9 @@
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
-    </row>
-    <row r="117" spans="1:7" ht="12.5">
+      <c r="G116" s="16"/>
+    </row>
+    <row r="117" spans="1:8" ht="12.5">
       <c r="A117" s="18" t="s">
         <v>165</v>
       </c>
@@ -3564,9 +3802,10 @@
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" ht="12.5">
+      <c r="G117" s="18"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" ht="12.5">
       <c r="A118" s="18" t="s">
         <v>167</v>
       </c>
@@ -3579,17 +3818,19 @@
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="18"/>
-      <c r="G118" s="1"/>
-    </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G118" s="18"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
-    </row>
-    <row r="120" spans="1:7" ht="13">
+      <c r="G119" s="16"/>
+    </row>
+    <row r="120" spans="1:8" ht="13">
       <c r="A120" s="15" t="s">
         <v>170</v>
       </c>
@@ -3598,8 +3839,9 @@
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
-    </row>
-    <row r="121" spans="1:7" ht="12.5">
+      <c r="G120" s="16"/>
+    </row>
+    <row r="121" spans="1:8" ht="12.5">
       <c r="A121" s="18" t="s">
         <v>171</v>
       </c>
@@ -3612,9 +3854,10 @@
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="18"/>
-      <c r="G121" s="1"/>
-    </row>
-    <row r="122" spans="1:7" ht="12.5">
+      <c r="G121" s="18"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" ht="12.5">
       <c r="A122" s="18" t="s">
         <v>174</v>
       </c>
@@ -3627,9 +3870,10 @@
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="18"/>
-      <c r="G122" s="1"/>
-    </row>
-    <row r="123" spans="1:7" ht="12.5">
+      <c r="G122" s="18"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" ht="12.5">
       <c r="A123" s="18" t="s">
         <v>176</v>
       </c>
@@ -3642,9 +3886,10 @@
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
-      <c r="G123" s="1"/>
-    </row>
-    <row r="124" spans="1:7" ht="12.5">
+      <c r="G123" s="18"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" ht="12.5">
       <c r="A124" s="18" t="s">
         <v>179</v>
       </c>
@@ -3657,9 +3902,10 @@
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
-      <c r="G124" s="1"/>
-    </row>
-    <row r="125" spans="1:7" ht="12.5">
+      <c r="G124" s="18"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" ht="12.5">
       <c r="A125" s="18" t="s">
         <v>181</v>
       </c>
@@ -3672,9 +3918,10 @@
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
-      <c r="G125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" ht="12.5">
+      <c r="G125" s="18"/>
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" ht="12.5">
       <c r="A126" s="18" t="s">
         <v>183</v>
       </c>
@@ -3687,9 +3934,10 @@
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="18"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" ht="15.5">
+      <c r="G126" s="18"/>
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.5">
       <c r="A127" s="29" t="s">
         <v>184</v>
       </c>
@@ -3702,9 +3950,10 @@
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="18"/>
-      <c r="G127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" ht="15.5">
+      <c r="G127" s="18"/>
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.5">
       <c r="A128" s="30" t="s">
         <v>186</v>
       </c>
@@ -3717,17 +3966,19 @@
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
-      <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G128" s="18"/>
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
       <c r="F129" s="16"/>
-    </row>
-    <row r="130" spans="1:7" ht="13">
+      <c r="G129" s="16"/>
+    </row>
+    <row r="130" spans="1:8" ht="13">
       <c r="A130" s="15" t="s">
         <v>188</v>
       </c>
@@ -3736,8 +3987,9 @@
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
-    </row>
-    <row r="131" spans="1:7" ht="12.5">
+      <c r="G130" s="16"/>
+    </row>
+    <row r="131" spans="1:8" ht="12.5">
       <c r="A131" s="18" t="s">
         <v>189</v>
       </c>
@@ -3750,9 +4002,10 @@
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="18"/>
-      <c r="G131" s="1"/>
-    </row>
-    <row r="132" spans="1:7" ht="12.5">
+      <c r="G131" s="18"/>
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" ht="12.5">
       <c r="A132" s="18" t="s">
         <v>191</v>
       </c>
@@ -3765,9 +4018,10 @@
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="18"/>
-      <c r="G132" s="1"/>
-    </row>
-    <row r="133" spans="1:7" ht="12.5">
+      <c r="G132" s="18"/>
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" ht="12.5">
       <c r="A133" s="18" t="s">
         <v>192</v>
       </c>
@@ -3780,9 +4034,10 @@
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
-      <c r="G133" s="1"/>
-    </row>
-    <row r="134" spans="1:7" ht="12.5">
+      <c r="G133" s="18"/>
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" ht="12.5">
       <c r="A134" s="18" t="s">
         <v>194</v>
       </c>
@@ -3795,9 +4050,10 @@
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
-      <c r="G134" s="1"/>
-    </row>
-    <row r="135" spans="1:7" ht="12.5">
+      <c r="G134" s="18"/>
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" ht="12.5">
       <c r="A135" s="18" t="s">
         <v>196</v>
       </c>
@@ -3810,9 +4066,10 @@
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="18"/>
-      <c r="G135" s="1"/>
-    </row>
-    <row r="136" spans="1:7" ht="12.5">
+      <c r="G135" s="18"/>
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" ht="12.5">
       <c r="A136" s="18" t="s">
         <v>198</v>
       </c>
@@ -3825,9 +4082,10 @@
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
-      <c r="G136" s="1"/>
-    </row>
-    <row r="137" spans="1:7" ht="12.5">
+      <c r="G136" s="18"/>
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" ht="12.5">
       <c r="A137" s="18" t="s">
         <v>200</v>
       </c>
@@ -3840,9 +4098,10 @@
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
-      <c r="G137" s="1"/>
-    </row>
-    <row r="138" spans="1:7" ht="12.5">
+      <c r="G137" s="18"/>
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="1:8" ht="12.5">
       <c r="A138" s="18" t="s">
         <v>202</v>
       </c>
@@ -3855,17 +4114,19 @@
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
-      <c r="G138" s="1"/>
-    </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G138" s="18"/>
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
-    </row>
-    <row r="140" spans="1:7" ht="13">
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:8" ht="13">
       <c r="A140" s="15" t="s">
         <v>204</v>
       </c>
@@ -3874,8 +4135,9 @@
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
-    </row>
-    <row r="141" spans="1:7" ht="12.5">
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:8" ht="12.5">
       <c r="A141" s="18" t="s">
         <v>205</v>
       </c>
@@ -3888,9 +4150,10 @@
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
-      <c r="G141" s="1"/>
-    </row>
-    <row r="142" spans="1:7" ht="12.5">
+      <c r="G141" s="18"/>
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="1:8" ht="12.5">
       <c r="A142" s="18" t="s">
         <v>207</v>
       </c>
@@ -3903,9 +4166,10 @@
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="18"/>
-      <c r="G142" s="1"/>
-    </row>
-    <row r="143" spans="1:7" ht="12.5">
+      <c r="G142" s="18"/>
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" ht="12.5">
       <c r="A143" s="18" t="s">
         <v>210</v>
       </c>
@@ -3916,16 +4180,18 @@
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
-    </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
-    </row>
-    <row r="145" spans="1:7" ht="13">
+      <c r="G144" s="16"/>
+    </row>
+    <row r="145" spans="1:8" ht="13">
       <c r="A145" s="15" t="s">
         <v>212</v>
       </c>
@@ -3934,8 +4200,9 @@
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
-    </row>
-    <row r="146" spans="1:7" ht="12.5">
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="1:8" ht="12.5">
       <c r="A146" s="18" t="s">
         <v>213</v>
       </c>
@@ -3948,9 +4215,10 @@
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="18"/>
-      <c r="G146" s="1"/>
-    </row>
-    <row r="147" spans="1:7" ht="12.5">
+      <c r="G146" s="18"/>
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" ht="12.5">
       <c r="A147" s="18" t="s">
         <v>215</v>
       </c>
@@ -3963,9 +4231,10 @@
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="18"/>
-      <c r="G147" s="1"/>
-    </row>
-    <row r="148" spans="1:7" ht="12.5">
+      <c r="G147" s="18"/>
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" ht="12.5">
       <c r="A148" s="18" t="s">
         <v>217</v>
       </c>
@@ -3978,9 +4247,10 @@
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="18"/>
-      <c r="G148" s="1"/>
-    </row>
-    <row r="149" spans="1:7" ht="12.5">
+      <c r="G148" s="18"/>
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" ht="12.5">
       <c r="A149" s="18" t="s">
         <v>219</v>
       </c>
@@ -3993,9 +4263,10 @@
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="18"/>
-      <c r="G149" s="1"/>
-    </row>
-    <row r="150" spans="1:7" ht="12.5">
+      <c r="G149" s="18"/>
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" ht="12.5">
       <c r="A150" s="18" t="s">
         <v>221</v>
       </c>
@@ -4008,9 +4279,10 @@
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="18"/>
-      <c r="G150" s="1"/>
-    </row>
-    <row r="151" spans="1:7" ht="12.5">
+      <c r="G150" s="18"/>
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" ht="12.5">
       <c r="A151" s="18" t="s">
         <v>223</v>
       </c>
@@ -4023,17 +4295,19 @@
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G151" s="18"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
-    </row>
-    <row r="153" spans="1:7" ht="13">
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="1:8" ht="13">
       <c r="A153" s="15" t="s">
         <v>225</v>
       </c>
@@ -4042,8 +4316,9 @@
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
-    </row>
-    <row r="154" spans="1:7" ht="12.5">
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="1:8" ht="12.5">
       <c r="A154" s="18" t="s">
         <v>226</v>
       </c>
@@ -4056,9 +4331,10 @@
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="18"/>
-      <c r="G154" s="1"/>
-    </row>
-    <row r="155" spans="1:7" ht="12.5">
+      <c r="G154" s="18"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" ht="12.5">
       <c r="A155" s="18" t="s">
         <v>228</v>
       </c>
@@ -4071,9 +4347,10 @@
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="18"/>
-      <c r="G155" s="1"/>
-    </row>
-    <row r="156" spans="1:7" ht="12.5">
+      <c r="G155" s="18"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" ht="12.5">
       <c r="A156" s="18" t="s">
         <v>230</v>
       </c>
@@ -4086,17 +4363,19 @@
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="18"/>
-      <c r="G156" s="1"/>
-    </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G156" s="18"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
-    </row>
-    <row r="158" spans="1:7" ht="13">
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="1:8" ht="13">
       <c r="A158" s="15" t="s">
         <v>232</v>
       </c>
@@ -4105,8 +4384,9 @@
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
-    </row>
-    <row r="159" spans="1:7" ht="12.5">
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="1:8" ht="12.5">
       <c r="A159" s="18" t="s">
         <v>233</v>
       </c>
@@ -4119,9 +4399,10 @@
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="18"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" ht="12.5">
+      <c r="G159" s="18"/>
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" ht="12.5">
       <c r="A160" s="18" t="s">
         <v>236</v>
       </c>
@@ -4134,9 +4415,10 @@
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
-      <c r="G160" s="1"/>
-    </row>
-    <row r="161" spans="1:7" ht="12.5">
+      <c r="G160" s="18"/>
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" ht="12.5">
       <c r="A161" s="18" t="s">
         <v>238</v>
       </c>
@@ -4149,9 +4431,10 @@
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="18"/>
-      <c r="G161" s="1"/>
-    </row>
-    <row r="162" spans="1:7" ht="12.5">
+      <c r="G161" s="18"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="1:8" ht="12.5">
       <c r="A162" s="18" t="s">
         <v>241</v>
       </c>
@@ -4164,9 +4447,10 @@
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="18"/>
-      <c r="G162" s="1"/>
-    </row>
-    <row r="163" spans="1:7" ht="12.5">
+      <c r="G162" s="18"/>
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" ht="12.5">
       <c r="A163" s="18" t="s">
         <v>243</v>
       </c>
@@ -4179,9 +4463,10 @@
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="18"/>
-      <c r="G163" s="1"/>
-    </row>
-    <row r="164" spans="1:7" ht="12.5">
+      <c r="G163" s="18"/>
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" ht="12.5">
       <c r="A164" s="18" t="s">
         <v>246</v>
       </c>
@@ -4192,16 +4477,18 @@
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
-    </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" spans="1:8" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
-    </row>
-    <row r="166" spans="1:7" ht="13">
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="1:8" ht="13">
       <c r="A166" s="15" t="s">
         <v>248</v>
       </c>
@@ -4210,8 +4497,9 @@
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
       <c r="F166" s="16"/>
-    </row>
-    <row r="167" spans="1:7" ht="12.5">
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="1:8" ht="12.5">
       <c r="A167" s="18" t="s">
         <v>249</v>
       </c>
@@ -4220,24 +4508,27 @@
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
       <c r="F167" s="16"/>
-    </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
       <c r="F168" s="16"/>
-    </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G168" s="16"/>
+    </row>
+    <row r="169" spans="1:8" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
-    </row>
-    <row r="170" spans="1:7" ht="13">
+      <c r="G169" s="16"/>
+    </row>
+    <row r="170" spans="1:8" ht="13">
       <c r="A170" s="25" t="s">
         <v>250</v>
       </c>
@@ -4246,8 +4537,9 @@
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
-    </row>
-    <row r="171" spans="1:7" ht="12.5">
+      <c r="G170" s="16"/>
+    </row>
+    <row r="171" spans="1:8" ht="12.5">
       <c r="A171" s="18" t="s">
         <v>251</v>
       </c>
@@ -4258,8 +4550,9 @@
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
       <c r="F171" s="16"/>
-    </row>
-    <row r="172" spans="1:7" ht="12.5">
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="1:8" ht="12.5">
       <c r="A172" s="18" t="s">
         <v>253</v>
       </c>
@@ -4270,16 +4563,18 @@
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="16"/>
-    </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:8" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="16"/>
-    </row>
-    <row r="174" spans="1:7" ht="13">
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:8" ht="13">
       <c r="A174" s="15" t="s">
         <v>255</v>
       </c>
@@ -4288,8 +4583,9 @@
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
       <c r="F174" s="16"/>
-    </row>
-    <row r="175" spans="1:7" ht="12.5">
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="1:8" ht="12.5">
       <c r="A175" s="17" t="s">
         <v>256</v>
       </c>
@@ -4298,16 +4594,18 @@
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
       <c r="F175" s="16"/>
-    </row>
-    <row r="176" spans="1:7" ht="13">
+      <c r="G175" s="16"/>
+    </row>
+    <row r="176" spans="1:8" ht="13">
       <c r="A176" s="25"/>
       <c r="B176" s="16"/>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
       <c r="F176" s="16"/>
-    </row>
-    <row r="177" spans="1:6" ht="13">
+      <c r="G176" s="16"/>
+    </row>
+    <row r="177" spans="1:7" ht="13">
       <c r="A177" s="25" t="s">
         <v>257</v>
       </c>
@@ -4316,8 +4614,9 @@
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
       <c r="F177" s="16"/>
-    </row>
-    <row r="178" spans="1:6" ht="12.5">
+      <c r="G177" s="16"/>
+    </row>
+    <row r="178" spans="1:7" ht="12.5">
       <c r="A178" s="18" t="s">
         <v>258</v>
       </c>
@@ -4326,8 +4625,9 @@
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
       <c r="F178" s="16"/>
-    </row>
-    <row r="179" spans="1:6" ht="12.5">
+      <c r="G178" s="16"/>
+    </row>
+    <row r="179" spans="1:7" ht="12.5">
       <c r="A179" s="18" t="s">
         <v>259</v>
       </c>
@@ -4336,8 +4636,9 @@
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
       <c r="F179" s="16"/>
-    </row>
-    <row r="180" spans="1:6" ht="12.5">
+      <c r="G179" s="16"/>
+    </row>
+    <row r="180" spans="1:7" ht="12.5">
       <c r="A180" s="18" t="s">
         <v>260</v>
       </c>
@@ -4346,8 +4647,9 @@
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
       <c r="F180" s="16"/>
-    </row>
-    <row r="181" spans="1:6" ht="12.5">
+      <c r="G180" s="16"/>
+    </row>
+    <row r="181" spans="1:7" ht="12.5">
       <c r="A181" s="18" t="s">
         <v>261</v>
       </c>
@@ -4356,16 +4658,18 @@
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
       <c r="F181" s="16"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G181" s="16"/>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
       <c r="F182" s="16"/>
-    </row>
-    <row r="183" spans="1:6" ht="13">
+      <c r="G182" s="16"/>
+    </row>
+    <row r="183" spans="1:7" ht="13">
       <c r="A183" s="15" t="s">
         <v>262</v>
       </c>
@@ -4374,8 +4678,9 @@
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
       <c r="F183" s="16"/>
-    </row>
-    <row r="184" spans="1:6" ht="12.5">
+      <c r="G183" s="16"/>
+    </row>
+    <row r="184" spans="1:7" ht="12.5">
       <c r="A184" s="18" t="s">
         <v>263</v>
       </c>
@@ -4384,16 +4689,18 @@
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
       <c r="F184" s="16"/>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G184" s="16"/>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
       <c r="F185" s="16"/>
-    </row>
-    <row r="186" spans="1:6" ht="13">
+      <c r="G185" s="16"/>
+    </row>
+    <row r="186" spans="1:7" ht="13">
       <c r="A186" s="15" t="s">
         <v>264</v>
       </c>
@@ -4402,8 +4709,9 @@
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
       <c r="F186" s="16"/>
-    </row>
-    <row r="187" spans="1:6" ht="12.5">
+      <c r="G186" s="16"/>
+    </row>
+    <row r="187" spans="1:7" ht="12.5">
       <c r="A187" s="18" t="s">
         <v>265</v>
       </c>
@@ -4412,8 +4720,9 @@
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
       <c r="F187" s="16"/>
-    </row>
-    <row r="188" spans="1:6" ht="12.5">
+      <c r="G187" s="16"/>
+    </row>
+    <row r="188" spans="1:7" ht="12.5">
       <c r="A188" s="18" t="s">
         <v>266</v>
       </c>
@@ -4422,8 +4731,9 @@
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="16"/>
-    </row>
-    <row r="189" spans="1:6" ht="12.5">
+      <c r="G188" s="16"/>
+    </row>
+    <row r="189" spans="1:7" ht="12.5">
       <c r="A189" s="18" t="s">
         <v>267</v>
       </c>
@@ -4432,8 +4742,9 @@
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
-    </row>
-    <row r="190" spans="1:6" ht="12.5">
+      <c r="G189" s="16"/>
+    </row>
+    <row r="190" spans="1:7" ht="12.5">
       <c r="A190" s="18" t="s">
         <v>268</v>
       </c>
@@ -4442,8 +4753,9 @@
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
       <c r="F190" s="16"/>
-    </row>
-    <row r="191" spans="1:6" ht="12.5">
+      <c r="G190" s="16"/>
+    </row>
+    <row r="191" spans="1:7" ht="12.5">
       <c r="A191" s="18" t="s">
         <v>269</v>
       </c>
@@ -4452,8 +4764,9 @@
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
       <c r="F191" s="16"/>
-    </row>
-    <row r="192" spans="1:6" ht="12.5">
+      <c r="G191" s="16"/>
+    </row>
+    <row r="192" spans="1:7" ht="12.5">
       <c r="A192" s="18" t="s">
         <v>270</v>
       </c>
@@ -4464,8 +4777,9 @@
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
       <c r="F192" s="16"/>
-    </row>
-    <row r="193" spans="1:7" ht="12.5">
+      <c r="G192" s="16"/>
+    </row>
+    <row r="193" spans="1:8" ht="12.5">
       <c r="A193" s="18" t="s">
         <v>272</v>
       </c>
@@ -4478,9 +4792,10 @@
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="18"/>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" ht="12.5">
+      <c r="G193" s="18"/>
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:8" ht="12.5">
       <c r="A194" s="18" t="s">
         <v>274</v>
       </c>
@@ -4493,9 +4808,10 @@
       </c>
       <c r="E194" s="18"/>
       <c r="F194" s="18"/>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" ht="12.5">
+      <c r="G194" s="18"/>
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" ht="12.5">
       <c r="A195" s="18" t="s">
         <v>276</v>
       </c>
@@ -4508,17 +4824,19 @@
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="18"/>
-      <c r="G195" s="1"/>
-    </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G195" s="18"/>
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
       <c r="F196" s="16"/>
-    </row>
-    <row r="197" spans="1:7" ht="13">
+      <c r="G196" s="16"/>
+    </row>
+    <row r="197" spans="1:8" ht="13">
       <c r="A197" s="15" t="s">
         <v>278</v>
       </c>
@@ -4527,8 +4845,9 @@
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
       <c r="F197" s="16"/>
-    </row>
-    <row r="198" spans="1:7" ht="13">
+      <c r="G197" s="16"/>
+    </row>
+    <row r="198" spans="1:8" ht="13">
       <c r="A198" s="49" t="s">
         <v>279</v>
       </c>
@@ -4539,15 +4858,16 @@
       <c r="D198" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E198" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F198" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="G198" s="1"/>
-    </row>
-    <row r="199" spans="1:7" ht="13">
+      <c r="E198" s="49"/>
+      <c r="F198" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G198" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" ht="13">
       <c r="A199" s="49" t="s">
         <v>280</v>
       </c>
@@ -4558,15 +4878,16 @@
       <c r="D199" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E199" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F199" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="G199" s="1"/>
-    </row>
-    <row r="200" spans="1:7" ht="13">
+      <c r="E199" s="49"/>
+      <c r="F199" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G199" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" ht="13">
       <c r="A200" s="49" t="s">
         <v>281</v>
       </c>
@@ -4577,15 +4898,16 @@
       <c r="D200" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E200" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F200" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="G200" s="1"/>
-    </row>
-    <row r="201" spans="1:7" ht="13">
+      <c r="E200" s="49"/>
+      <c r="F200" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G200" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" ht="13">
       <c r="A201" s="49" t="s">
         <v>283</v>
       </c>
@@ -4596,15 +4918,16 @@
       <c r="D201" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E201" s="51" t="s">
+      <c r="E201" s="49"/>
+      <c r="F201" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G201" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="F201" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="G201" s="1"/>
-    </row>
-    <row r="202" spans="1:7" ht="13">
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="1:8" ht="13">
       <c r="A202" s="49" t="s">
         <v>285</v>
       </c>
@@ -4615,15 +4938,16 @@
       <c r="D202" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E202" s="51" t="s">
+      <c r="E202" s="49"/>
+      <c r="F202" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G202" s="48" t="s">
         <v>460</v>
       </c>
-      <c r="F202" s="48" t="s">
-        <v>461</v>
-      </c>
-      <c r="G202" s="1"/>
-    </row>
-    <row r="203" spans="1:7" ht="13">
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="1:8" ht="13">
       <c r="A203" s="49" t="s">
         <v>287</v>
       </c>
@@ -4634,15 +4958,16 @@
       <c r="D203" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F203" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="1:7" ht="13">
+      <c r="E203" s="49"/>
+      <c r="F203" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G203" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="H203" s="6"/>
+    </row>
+    <row r="204" spans="1:8" ht="13">
       <c r="A204" s="49" t="s">
         <v>289</v>
       </c>
@@ -4653,15 +4978,16 @@
       <c r="D204" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E204" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F204" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="G204" s="6"/>
-    </row>
-    <row r="205" spans="1:7" ht="13">
+      <c r="E204" s="49"/>
+      <c r="F204" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G204" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" spans="1:8" ht="13">
       <c r="A205" s="49" t="s">
         <v>290</v>
       </c>
@@ -4672,23 +4998,25 @@
       <c r="D205" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E205" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F205" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1">
+      <c r="E205" s="49"/>
+      <c r="F205" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G205" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="H205" s="6"/>
+    </row>
+    <row r="206" spans="1:8" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
       <c r="F206" s="16"/>
-    </row>
-    <row r="207" spans="1:7" ht="13">
+      <c r="G206" s="16"/>
+    </row>
+    <row r="207" spans="1:8" ht="13">
       <c r="A207" s="31" t="s">
         <v>291</v>
       </c>
@@ -4697,8 +5025,9 @@
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
       <c r="F207" s="16"/>
-    </row>
-    <row r="208" spans="1:7" ht="12.5">
+      <c r="G207" s="16"/>
+    </row>
+    <row r="208" spans="1:8" ht="12.5">
       <c r="A208" s="22" t="s">
         <v>292</v>
       </c>
@@ -4711,9 +5040,10 @@
       </c>
       <c r="E208" s="18"/>
       <c r="F208" s="18"/>
-      <c r="G208" s="1"/>
-    </row>
-    <row r="209" spans="1:7" ht="12.5">
+      <c r="G208" s="18"/>
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="1:8" ht="12.5">
       <c r="A209" s="22" t="s">
         <v>294</v>
       </c>
@@ -4726,9 +5056,10 @@
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="18"/>
-      <c r="G209" s="1"/>
-    </row>
-    <row r="210" spans="1:7" ht="12.5">
+      <c r="G209" s="18"/>
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="1:8" ht="12.5">
       <c r="A210" s="22" t="s">
         <v>296</v>
       </c>
@@ -4741,9 +5072,10 @@
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="18"/>
-      <c r="G210" s="1"/>
-    </row>
-    <row r="211" spans="1:7" ht="12.5">
+      <c r="G210" s="18"/>
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="1:8" ht="12.5">
       <c r="A211" s="22" t="s">
         <v>298</v>
       </c>
@@ -4756,9 +5088,10 @@
       </c>
       <c r="E211" s="18"/>
       <c r="F211" s="18"/>
-      <c r="G211" s="1"/>
-    </row>
-    <row r="212" spans="1:7" ht="12.5">
+      <c r="G211" s="18"/>
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="1:8" ht="12.5">
       <c r="A212" s="22" t="s">
         <v>300</v>
       </c>
@@ -4769,16 +5102,18 @@
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
       <c r="F212" s="16"/>
-    </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G212" s="16"/>
+    </row>
+    <row r="213" spans="1:8" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
       <c r="D213" s="16"/>
       <c r="E213" s="16"/>
       <c r="F213" s="16"/>
-    </row>
-    <row r="214" spans="1:7" ht="13">
+      <c r="G213" s="16"/>
+    </row>
+    <row r="214" spans="1:8" ht="13">
       <c r="A214" s="15" t="s">
         <v>302</v>
       </c>
@@ -4787,8 +5122,9 @@
       <c r="D214" s="16"/>
       <c r="E214" s="16"/>
       <c r="F214" s="16"/>
-    </row>
-    <row r="215" spans="1:7" ht="13">
+      <c r="G214" s="16"/>
+    </row>
+    <row r="215" spans="1:8" ht="13">
       <c r="A215" s="49" t="s">
         <v>303</v>
       </c>
@@ -4799,14 +5135,15 @@
       <c r="D215" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E215" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F215" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="13">
+      <c r="E215" s="49"/>
+      <c r="F215" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G215" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="13">
       <c r="A216" s="49" t="s">
         <v>306</v>
       </c>
@@ -4817,14 +5154,15 @@
       <c r="D216" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E216" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F216" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="13">
+      <c r="E216" s="49"/>
+      <c r="F216" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G216" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="13">
       <c r="A217" s="49" t="s">
         <v>308</v>
       </c>
@@ -4835,14 +5173,15 @@
       <c r="D217" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E217" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F217" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="13">
+      <c r="E217" s="49"/>
+      <c r="F217" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G217" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="13">
       <c r="A218" s="49" t="s">
         <v>310</v>
       </c>
@@ -4853,14 +5192,15 @@
       <c r="D218" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E218" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F218" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="13">
+      <c r="E218" s="49"/>
+      <c r="F218" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G218" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="13">
       <c r="A219" s="54" t="s">
         <v>312</v>
       </c>
@@ -4871,14 +5211,15 @@
       <c r="D219" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E219" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F219" s="16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="13">
+      <c r="E219" s="49"/>
+      <c r="F219" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G219" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="13">
       <c r="A220" s="54" t="s">
         <v>314</v>
       </c>
@@ -4889,14 +5230,15 @@
       <c r="D220" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F220" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="13">
+      <c r="E220" s="49"/>
+      <c r="F220" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G220" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="13">
       <c r="A221" s="54" t="s">
         <v>316</v>
       </c>
@@ -4907,28 +5249,30 @@
       <c r="D221" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E221" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F221" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="13">
+      <c r="E221" s="49"/>
+      <c r="F221" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G221" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="13">
       <c r="A222" s="54"/>
       <c r="B222" s="50"/>
       <c r="C222" s="53" t="s">
         <v>318</v>
       </c>
       <c r="D222" s="49"/>
-      <c r="E222" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F222" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="12.5">
+      <c r="E222" s="49"/>
+      <c r="F222" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G222" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="12.5">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
       <c r="C223" s="34" t="s">
@@ -4938,9 +5282,10 @@
         <v>320</v>
       </c>
       <c r="E223" s="18"/>
-      <c r="F223" s="16"/>
-    </row>
-    <row r="224" spans="1:7" ht="12.5">
+      <c r="F223" s="18"/>
+      <c r="G223" s="16"/>
+    </row>
+    <row r="224" spans="1:8" ht="12.5">
       <c r="A224" s="36"/>
       <c r="B224" s="36"/>
       <c r="C224" s="37" t="s">
@@ -4949,17 +5294,19 @@
       <c r="D224" s="36"/>
       <c r="E224" s="36"/>
       <c r="F224" s="36"/>
-      <c r="G224" s="5"/>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G224" s="36"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" customHeight="1">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
       <c r="C225" s="16"/>
       <c r="D225" s="16"/>
       <c r="E225" s="16"/>
       <c r="F225" s="16"/>
-    </row>
-    <row r="226" spans="1:6" ht="13">
+      <c r="G225" s="16"/>
+    </row>
+    <row r="226" spans="1:7" ht="13">
       <c r="A226" s="15" t="s">
         <v>322</v>
       </c>
@@ -4968,8 +5315,9 @@
       <c r="D226" s="16"/>
       <c r="E226" s="16"/>
       <c r="F226" s="16"/>
-    </row>
-    <row r="227" spans="1:6" ht="13">
+      <c r="G226" s="16"/>
+    </row>
+    <row r="227" spans="1:7" ht="13">
       <c r="A227" s="18" t="s">
         <v>323</v>
       </c>
@@ -4978,12 +5326,13 @@
         <v>324</v>
       </c>
       <c r="D227" s="16"/>
-      <c r="E227" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F227" s="16"/>
-    </row>
-    <row r="228" spans="1:6" ht="13">
+      <c r="E227" s="16"/>
+      <c r="F227" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G227" s="16"/>
+    </row>
+    <row r="228" spans="1:7" ht="13">
       <c r="A228" s="22" t="s">
         <v>325</v>
       </c>
@@ -4992,12 +5341,13 @@
         <v>326</v>
       </c>
       <c r="D228" s="16"/>
-      <c r="E228" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F228" s="16"/>
-    </row>
-    <row r="229" spans="1:6" ht="12.5">
+      <c r="E228" s="16"/>
+      <c r="F228" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G228" s="16"/>
+    </row>
+    <row r="229" spans="1:7" ht="12.5">
       <c r="A229" s="18" t="s">
         <v>327</v>
       </c>
@@ -5008,8 +5358,9 @@
       <c r="D229" s="16"/>
       <c r="E229" s="16"/>
       <c r="F229" s="16"/>
-    </row>
-    <row r="230" spans="1:6" ht="13">
+      <c r="G229" s="16"/>
+    </row>
+    <row r="230" spans="1:7" ht="13">
       <c r="A230" s="18" t="s">
         <v>329</v>
       </c>
@@ -5018,12 +5369,13 @@
         <v>330</v>
       </c>
       <c r="D230" s="16"/>
-      <c r="E230" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F230" s="16"/>
-    </row>
-    <row r="231" spans="1:6" ht="13">
+      <c r="E230" s="16"/>
+      <c r="F230" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G230" s="16"/>
+    </row>
+    <row r="231" spans="1:7" ht="13">
       <c r="A231" s="18" t="s">
         <v>331</v>
       </c>
@@ -5032,12 +5384,13 @@
         <v>332</v>
       </c>
       <c r="D231" s="16"/>
-      <c r="E231" s="51" t="s">
-        <v>460</v>
-      </c>
-      <c r="F231" s="16"/>
-    </row>
-    <row r="232" spans="1:6" ht="12.5">
+      <c r="E231" s="16"/>
+      <c r="F231" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="G231" s="16"/>
+    </row>
+    <row r="232" spans="1:7" ht="12.5">
       <c r="A232" s="18" t="s">
         <v>333</v>
       </c>
@@ -5048,8 +5401,9 @@
       <c r="D232" s="16"/>
       <c r="E232" s="16"/>
       <c r="F232" s="16"/>
-    </row>
-    <row r="233" spans="1:6" ht="12.5">
+      <c r="G232" s="16"/>
+    </row>
+    <row r="233" spans="1:7" ht="12.5">
       <c r="A233" s="18" t="s">
         <v>335</v>
       </c>
@@ -5060,8 +5414,9 @@
       <c r="D233" s="16"/>
       <c r="E233" s="16"/>
       <c r="F233" s="16"/>
-    </row>
-    <row r="234" spans="1:6" ht="12.5">
+      <c r="G233" s="16"/>
+    </row>
+    <row r="234" spans="1:7" ht="12.5">
       <c r="A234" s="18" t="s">
         <v>337</v>
       </c>
@@ -5072,8 +5427,9 @@
       <c r="D234" s="16"/>
       <c r="E234" s="16"/>
       <c r="F234" s="16"/>
-    </row>
-    <row r="235" spans="1:6" ht="12.5">
+      <c r="G234" s="16"/>
+    </row>
+    <row r="235" spans="1:7" ht="12.5">
       <c r="A235" s="18" t="s">
         <v>339</v>
       </c>
@@ -5084,16 +5440,18 @@
       <c r="D235" s="16"/>
       <c r="E235" s="16"/>
       <c r="F235" s="16"/>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G235" s="16"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
       <c r="C236" s="16"/>
       <c r="D236" s="16"/>
       <c r="E236" s="16"/>
       <c r="F236" s="16"/>
-    </row>
-    <row r="237" spans="1:6" ht="13">
+      <c r="G236" s="16"/>
+    </row>
+    <row r="237" spans="1:7" ht="13">
       <c r="A237" s="15" t="s">
         <v>341</v>
       </c>
@@ -5102,8 +5460,9 @@
       <c r="D237" s="16"/>
       <c r="E237" s="16"/>
       <c r="F237" s="16"/>
-    </row>
-    <row r="238" spans="1:6" ht="14.5">
+      <c r="G237" s="16"/>
+    </row>
+    <row r="238" spans="1:7" ht="14.5">
       <c r="A238" s="39" t="s">
         <v>342</v>
       </c>
@@ -5114,8 +5473,9 @@
       <c r="D238" s="16"/>
       <c r="E238" s="16"/>
       <c r="F238" s="16"/>
-    </row>
-    <row r="239" spans="1:6" ht="14.5">
+      <c r="G238" s="16"/>
+    </row>
+    <row r="239" spans="1:7" ht="14.5">
       <c r="A239" s="39" t="s">
         <v>344</v>
       </c>
@@ -5126,8 +5486,9 @@
       <c r="D239" s="16"/>
       <c r="E239" s="16"/>
       <c r="F239" s="16"/>
-    </row>
-    <row r="240" spans="1:6" ht="14.5">
+      <c r="G239" s="16"/>
+    </row>
+    <row r="240" spans="1:7" ht="14.5">
       <c r="A240" s="39" t="s">
         <v>346</v>
       </c>
@@ -5138,8 +5499,9 @@
       <c r="D240" s="16"/>
       <c r="E240" s="16"/>
       <c r="F240" s="16"/>
-    </row>
-    <row r="241" spans="1:6" ht="14.5">
+      <c r="G240" s="16"/>
+    </row>
+    <row r="241" spans="1:7" ht="14.5">
       <c r="A241" s="39" t="s">
         <v>348</v>
       </c>
@@ -5150,8 +5512,9 @@
       <c r="D241" s="16"/>
       <c r="E241" s="16"/>
       <c r="F241" s="16"/>
-    </row>
-    <row r="242" spans="1:6" ht="14.5">
+      <c r="G241" s="16"/>
+    </row>
+    <row r="242" spans="1:7" ht="14.5">
       <c r="A242" s="39" t="s">
         <v>350</v>
       </c>
@@ -5162,8 +5525,9 @@
       <c r="D242" s="16"/>
       <c r="E242" s="16"/>
       <c r="F242" s="16"/>
-    </row>
-    <row r="243" spans="1:6" ht="12.5">
+      <c r="G242" s="16"/>
+    </row>
+    <row r="243" spans="1:7" ht="12.5">
       <c r="A243" s="35" t="s">
         <v>352</v>
       </c>
@@ -5174,16 +5538,18 @@
       <c r="D243" s="16"/>
       <c r="E243" s="16"/>
       <c r="F243" s="16"/>
-    </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G243" s="16"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
       <c r="C244" s="16"/>
       <c r="D244" s="16"/>
       <c r="E244" s="16"/>
       <c r="F244" s="16"/>
-    </row>
-    <row r="245" spans="1:6" ht="13">
+      <c r="G244" s="16"/>
+    </row>
+    <row r="245" spans="1:7" ht="13">
       <c r="A245" s="15" t="s">
         <v>354</v>
       </c>
@@ -5192,8 +5558,9 @@
       <c r="D245" s="16"/>
       <c r="E245" s="16"/>
       <c r="F245" s="16"/>
-    </row>
-    <row r="246" spans="1:6" ht="12.5">
+      <c r="G245" s="16"/>
+    </row>
+    <row r="246" spans="1:7" ht="12.5">
       <c r="A246" s="22" t="s">
         <v>300</v>
       </c>
@@ -5204,8 +5571,9 @@
       <c r="D246" s="16"/>
       <c r="E246" s="16"/>
       <c r="F246" s="16"/>
-    </row>
-    <row r="247" spans="1:6" ht="12.5">
+      <c r="G246" s="16"/>
+    </row>
+    <row r="247" spans="1:7" ht="12.5">
       <c r="A247" s="22" t="s">
         <v>355</v>
       </c>
@@ -5216,8 +5584,9 @@
       <c r="D247" s="16"/>
       <c r="E247" s="16"/>
       <c r="F247" s="16"/>
-    </row>
-    <row r="248" spans="1:6" ht="12.5">
+      <c r="G247" s="16"/>
+    </row>
+    <row r="248" spans="1:7" ht="12.5">
       <c r="A248" s="22" t="s">
         <v>357</v>
       </c>
@@ -5228,8 +5597,9 @@
       <c r="D248" s="16"/>
       <c r="E248" s="16"/>
       <c r="F248" s="16"/>
-    </row>
-    <row r="249" spans="1:6" ht="12.5">
+      <c r="G248" s="16"/>
+    </row>
+    <row r="249" spans="1:7" ht="12.5">
       <c r="A249" s="22" t="s">
         <v>359</v>
       </c>
@@ -5240,16 +5610,18 @@
       <c r="D249" s="16"/>
       <c r="E249" s="16"/>
       <c r="F249" s="16"/>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G249" s="16"/>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
       <c r="D250" s="16"/>
       <c r="E250" s="16"/>
       <c r="F250" s="16"/>
-    </row>
-    <row r="251" spans="1:6" ht="13">
+      <c r="G250" s="16"/>
+    </row>
+    <row r="251" spans="1:7" ht="13">
       <c r="A251" s="15" t="s">
         <v>361</v>
       </c>
@@ -5258,8 +5630,9 @@
       <c r="D251" s="16"/>
       <c r="E251" s="16"/>
       <c r="F251" s="16"/>
-    </row>
-    <row r="252" spans="1:6" ht="12.5">
+      <c r="G251" s="16"/>
+    </row>
+    <row r="252" spans="1:7" ht="12.5">
       <c r="A252" s="40" t="s">
         <v>362</v>
       </c>
@@ -5268,8 +5641,9 @@
       <c r="D252" s="16"/>
       <c r="E252" s="16"/>
       <c r="F252" s="16"/>
-    </row>
-    <row r="253" spans="1:6" ht="12.5">
+      <c r="G252" s="16"/>
+    </row>
+    <row r="253" spans="1:7" ht="12.5">
       <c r="A253" s="41" t="s">
         <v>363</v>
       </c>
@@ -5280,8 +5654,9 @@
       <c r="D253" s="16"/>
       <c r="E253" s="16"/>
       <c r="F253" s="16"/>
-    </row>
-    <row r="254" spans="1:6" ht="12.5">
+      <c r="G253" s="16"/>
+    </row>
+    <row r="254" spans="1:7" ht="12.5">
       <c r="A254" s="42" t="s">
         <v>365</v>
       </c>
@@ -5292,8 +5667,9 @@
       <c r="D254" s="16"/>
       <c r="E254" s="16"/>
       <c r="F254" s="16"/>
-    </row>
-    <row r="255" spans="1:6" ht="12.5">
+      <c r="G254" s="16"/>
+    </row>
+    <row r="255" spans="1:7" ht="12.5">
       <c r="A255" s="42" t="s">
         <v>367</v>
       </c>
@@ -5304,8 +5680,9 @@
       <c r="D255" s="16"/>
       <c r="E255" s="16"/>
       <c r="F255" s="16"/>
-    </row>
-    <row r="256" spans="1:6" ht="12.5">
+      <c r="G255" s="16"/>
+    </row>
+    <row r="256" spans="1:7" ht="12.5">
       <c r="A256" s="41" t="s">
         <v>369</v>
       </c>
@@ -5316,8 +5693,9 @@
       <c r="D256" s="16"/>
       <c r="E256" s="16"/>
       <c r="F256" s="16"/>
-    </row>
-    <row r="257" spans="1:6" ht="12.5">
+      <c r="G256" s="16"/>
+    </row>
+    <row r="257" spans="1:7" ht="12.5">
       <c r="A257" s="43" t="s">
         <v>371</v>
       </c>
@@ -5328,16 +5706,18 @@
       <c r="D257" s="16"/>
       <c r="E257" s="16"/>
       <c r="F257" s="16"/>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G257" s="16"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" customHeight="1">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
       <c r="C258" s="16"/>
       <c r="D258" s="16"/>
       <c r="E258" s="16"/>
       <c r="F258" s="16"/>
-    </row>
-    <row r="259" spans="1:6" ht="13">
+      <c r="G258" s="16"/>
+    </row>
+    <row r="259" spans="1:7" ht="13">
       <c r="A259" s="15" t="s">
         <v>373</v>
       </c>
@@ -5346,8 +5726,9 @@
       <c r="D259" s="16"/>
       <c r="E259" s="16"/>
       <c r="F259" s="16"/>
-    </row>
-    <row r="260" spans="1:6" ht="12.5">
+      <c r="G259" s="16"/>
+    </row>
+    <row r="260" spans="1:7" ht="12.5">
       <c r="A260" s="23" t="s">
         <v>374</v>
       </c>
@@ -5356,8 +5737,9 @@
       <c r="D260" s="16"/>
       <c r="E260" s="16"/>
       <c r="F260" s="16"/>
-    </row>
-    <row r="261" spans="1:6" ht="12.5">
+      <c r="G260" s="16"/>
+    </row>
+    <row r="261" spans="1:7" ht="12.5">
       <c r="A261" s="23" t="s">
         <v>375</v>
       </c>
@@ -5368,8 +5750,9 @@
       <c r="D261" s="16"/>
       <c r="E261" s="16"/>
       <c r="F261" s="16"/>
-    </row>
-    <row r="262" spans="1:6" ht="12.5">
+      <c r="G261" s="16"/>
+    </row>
+    <row r="262" spans="1:7" ht="12.5">
       <c r="A262" s="23" t="s">
         <v>377</v>
       </c>
@@ -5380,8 +5763,9 @@
       <c r="D262" s="16"/>
       <c r="E262" s="16"/>
       <c r="F262" s="16"/>
-    </row>
-    <row r="263" spans="1:6" ht="12.5">
+      <c r="G262" s="16"/>
+    </row>
+    <row r="263" spans="1:7" ht="12.5">
       <c r="A263" s="22" t="s">
         <v>379</v>
       </c>
@@ -5392,8 +5776,9 @@
       <c r="D263" s="16"/>
       <c r="E263" s="16"/>
       <c r="F263" s="16"/>
-    </row>
-    <row r="264" spans="1:6" ht="12.5">
+      <c r="G263" s="16"/>
+    </row>
+    <row r="264" spans="1:7" ht="12.5">
       <c r="A264" s="22" t="s">
         <v>381</v>
       </c>
@@ -5404,8 +5789,9 @@
       <c r="D264" s="16"/>
       <c r="E264" s="16"/>
       <c r="F264" s="16"/>
-    </row>
-    <row r="265" spans="1:6" ht="12.5">
+      <c r="G264" s="16"/>
+    </row>
+    <row r="265" spans="1:7" ht="12.5">
       <c r="A265" s="22" t="s">
         <v>383</v>
       </c>
@@ -5416,8 +5802,9 @@
       <c r="D265" s="16"/>
       <c r="E265" s="16"/>
       <c r="F265" s="16"/>
-    </row>
-    <row r="266" spans="1:6" ht="12.5">
+      <c r="G265" s="16"/>
+    </row>
+    <row r="266" spans="1:7" ht="12.5">
       <c r="A266" s="22" t="s">
         <v>385</v>
       </c>
@@ -5428,16 +5815,18 @@
       <c r="D266" s="16"/>
       <c r="E266" s="16"/>
       <c r="F266" s="16"/>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G266" s="16"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" customHeight="1">
       <c r="A267" s="16"/>
       <c r="B267" s="16"/>
       <c r="C267" s="16"/>
       <c r="D267" s="16"/>
       <c r="E267" s="16"/>
       <c r="F267" s="16"/>
-    </row>
-    <row r="268" spans="1:6" ht="13">
+      <c r="G267" s="16"/>
+    </row>
+    <row r="268" spans="1:7" ht="13">
       <c r="A268" s="15" t="s">
         <v>387</v>
       </c>
@@ -5446,8 +5835,9 @@
       <c r="D268" s="16"/>
       <c r="E268" s="16"/>
       <c r="F268" s="16"/>
-    </row>
-    <row r="269" spans="1:6" ht="12.5">
+      <c r="G268" s="16"/>
+    </row>
+    <row r="269" spans="1:7" ht="12.5">
       <c r="A269" s="41" t="s">
         <v>388</v>
       </c>
@@ -5458,8 +5848,9 @@
       <c r="D269" s="16"/>
       <c r="E269" s="16"/>
       <c r="F269" s="16"/>
-    </row>
-    <row r="270" spans="1:6" ht="12.5">
+      <c r="G269" s="16"/>
+    </row>
+    <row r="270" spans="1:7" ht="12.5">
       <c r="A270" s="42" t="s">
         <v>390</v>
       </c>
@@ -5470,8 +5861,9 @@
       <c r="D270" s="16"/>
       <c r="E270" s="16"/>
       <c r="F270" s="16"/>
-    </row>
-    <row r="271" spans="1:6" ht="12.5">
+      <c r="G270" s="16"/>
+    </row>
+    <row r="271" spans="1:7" ht="12.5">
       <c r="A271" s="40" t="s">
         <v>392</v>
       </c>
@@ -5482,8 +5874,9 @@
       <c r="D271" s="16"/>
       <c r="E271" s="16"/>
       <c r="F271" s="16"/>
-    </row>
-    <row r="272" spans="1:6" ht="12.5">
+      <c r="G271" s="16"/>
+    </row>
+    <row r="272" spans="1:7" ht="12.5">
       <c r="A272" s="40" t="s">
         <v>394</v>
       </c>
@@ -5494,16 +5887,18 @@
       <c r="D272" s="16"/>
       <c r="E272" s="16"/>
       <c r="F272" s="16"/>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G272" s="16"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" customHeight="1">
       <c r="A273" s="16"/>
       <c r="B273" s="16"/>
       <c r="C273" s="16"/>
       <c r="D273" s="16"/>
       <c r="E273" s="16"/>
       <c r="F273" s="16"/>
-    </row>
-    <row r="274" spans="1:6" ht="26">
+      <c r="G273" s="16"/>
+    </row>
+    <row r="274" spans="1:7" ht="26">
       <c r="A274" s="45" t="s">
         <v>396</v>
       </c>
@@ -5512,16 +5907,18 @@
       <c r="D274" s="16"/>
       <c r="E274" s="16"/>
       <c r="F274" s="16"/>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G274" s="16"/>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1">
       <c r="A275" s="16"/>
       <c r="B275" s="16"/>
       <c r="C275" s="16"/>
       <c r="D275" s="16"/>
       <c r="E275" s="16"/>
       <c r="F275" s="16"/>
-    </row>
-    <row r="276" spans="1:6" ht="13">
+      <c r="G275" s="16"/>
+    </row>
+    <row r="276" spans="1:7" ht="13">
       <c r="A276" s="31" t="s">
         <v>397</v>
       </c>
@@ -5530,8 +5927,9 @@
       <c r="D276" s="16"/>
       <c r="E276" s="16"/>
       <c r="F276" s="16"/>
-    </row>
-    <row r="277" spans="1:6" ht="12.5">
+      <c r="G276" s="16"/>
+    </row>
+    <row r="277" spans="1:7" ht="12.5">
       <c r="A277" s="43" t="s">
         <v>398</v>
       </c>
@@ -5542,8 +5940,9 @@
       <c r="D277" s="16"/>
       <c r="E277" s="16"/>
       <c r="F277" s="16"/>
-    </row>
-    <row r="278" spans="1:6" ht="12.5">
+      <c r="G277" s="16"/>
+    </row>
+    <row r="278" spans="1:7" ht="12.5">
       <c r="A278" s="43" t="s">
         <v>399</v>
       </c>
@@ -5554,8 +5953,9 @@
       <c r="D278" s="16"/>
       <c r="E278" s="16"/>
       <c r="F278" s="16"/>
-    </row>
-    <row r="279" spans="1:6" ht="12.5">
+      <c r="G278" s="16"/>
+    </row>
+    <row r="279" spans="1:7" ht="12.5">
       <c r="A279" s="41" t="s">
         <v>400</v>
       </c>
@@ -5566,8 +5966,9 @@
       <c r="D279" s="16"/>
       <c r="E279" s="16"/>
       <c r="F279" s="16"/>
-    </row>
-    <row r="280" spans="1:6" ht="12.5">
+      <c r="G279" s="16"/>
+    </row>
+    <row r="280" spans="1:7" ht="12.5">
       <c r="A280" s="41" t="s">
         <v>402</v>
       </c>
@@ -5578,8 +5979,9 @@
       <c r="D280" s="16"/>
       <c r="E280" s="16"/>
       <c r="F280" s="16"/>
-    </row>
-    <row r="281" spans="1:6" ht="12.5">
+      <c r="G280" s="16"/>
+    </row>
+    <row r="281" spans="1:7" ht="12.5">
       <c r="A281" s="41" t="s">
         <v>404</v>
       </c>
@@ -5590,8 +5992,9 @@
       <c r="D281" s="16"/>
       <c r="E281" s="16"/>
       <c r="F281" s="16"/>
-    </row>
-    <row r="282" spans="1:6" ht="12.5">
+      <c r="G281" s="16"/>
+    </row>
+    <row r="282" spans="1:7" ht="12.5">
       <c r="A282" s="41" t="s">
         <v>406</v>
       </c>
@@ -5602,16 +6005,18 @@
       <c r="D282" s="16"/>
       <c r="E282" s="16"/>
       <c r="F282" s="16"/>
-    </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G282" s="16"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1">
       <c r="A283" s="16"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
       <c r="D283" s="16"/>
       <c r="E283" s="16"/>
       <c r="F283" s="16"/>
-    </row>
-    <row r="284" spans="1:6" ht="13">
+      <c r="G283" s="16"/>
+    </row>
+    <row r="284" spans="1:7" ht="13">
       <c r="A284" s="25" t="s">
         <v>408</v>
       </c>
@@ -5620,8 +6025,9 @@
       <c r="D284" s="16"/>
       <c r="E284" s="16"/>
       <c r="F284" s="16"/>
-    </row>
-    <row r="285" spans="1:6" ht="12.5">
+      <c r="G284" s="16"/>
+    </row>
+    <row r="285" spans="1:7" ht="12.5">
       <c r="A285" s="41" t="s">
         <v>409</v>
       </c>
@@ -5632,8 +6038,9 @@
       <c r="D285" s="16"/>
       <c r="E285" s="16"/>
       <c r="F285" s="16"/>
-    </row>
-    <row r="286" spans="1:6" ht="12.5">
+      <c r="G285" s="16"/>
+    </row>
+    <row r="286" spans="1:7" ht="12.5">
       <c r="A286" s="41" t="s">
         <v>411</v>
       </c>
@@ -5644,8 +6051,9 @@
       <c r="D286" s="16"/>
       <c r="E286" s="16"/>
       <c r="F286" s="16"/>
-    </row>
-    <row r="287" spans="1:6" ht="12.5">
+      <c r="G286" s="16"/>
+    </row>
+    <row r="287" spans="1:7" ht="12.5">
       <c r="A287" s="41" t="s">
         <v>413</v>
       </c>
@@ -5656,8 +6064,9 @@
       <c r="D287" s="16"/>
       <c r="E287" s="16"/>
       <c r="F287" s="16"/>
-    </row>
-    <row r="288" spans="1:6" ht="12.5">
+      <c r="G287" s="16"/>
+    </row>
+    <row r="288" spans="1:7" ht="12.5">
       <c r="A288" s="41" t="s">
         <v>415</v>
       </c>
@@ -5668,8 +6077,9 @@
       <c r="D288" s="16"/>
       <c r="E288" s="16"/>
       <c r="F288" s="16"/>
-    </row>
-    <row r="289" spans="1:7" ht="12.5">
+      <c r="G288" s="16"/>
+    </row>
+    <row r="289" spans="1:8" ht="12.5">
       <c r="A289" s="41" t="s">
         <v>417</v>
       </c>
@@ -5680,8 +6090,9 @@
       <c r="D289" s="16"/>
       <c r="E289" s="16"/>
       <c r="F289" s="16"/>
-    </row>
-    <row r="290" spans="1:7" ht="12.5">
+      <c r="G289" s="16"/>
+    </row>
+    <row r="290" spans="1:8" ht="12.5">
       <c r="A290" s="41" t="s">
         <v>419</v>
       </c>
@@ -5692,8 +6103,9 @@
       <c r="D290" s="16"/>
       <c r="E290" s="16"/>
       <c r="F290" s="16"/>
-    </row>
-    <row r="291" spans="1:7" ht="12.5">
+      <c r="G290" s="16"/>
+    </row>
+    <row r="291" spans="1:8" ht="12.5">
       <c r="A291" s="41" t="s">
         <v>421</v>
       </c>
@@ -5704,8 +6116,9 @@
       <c r="D291" s="16"/>
       <c r="E291" s="16"/>
       <c r="F291" s="16"/>
-    </row>
-    <row r="292" spans="1:7" ht="12.5">
+      <c r="G291" s="16"/>
+    </row>
+    <row r="292" spans="1:8" ht="12.5">
       <c r="A292" s="41" t="s">
         <v>423</v>
       </c>
@@ -5716,16 +6129,18 @@
       <c r="D292" s="16"/>
       <c r="E292" s="16"/>
       <c r="F292" s="16"/>
-    </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G292" s="16"/>
+    </row>
+    <row r="293" spans="1:8" ht="15.75" customHeight="1">
       <c r="A293" s="16"/>
       <c r="B293" s="16"/>
       <c r="C293" s="16"/>
       <c r="D293" s="16"/>
       <c r="E293" s="16"/>
       <c r="F293" s="16"/>
-    </row>
-    <row r="294" spans="1:7" ht="13">
+      <c r="G293" s="16"/>
+    </row>
+    <row r="294" spans="1:8" ht="13">
       <c r="A294" s="7" t="s">
         <v>425</v>
       </c>
@@ -5737,11 +6152,12 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
       <c r="G294" s="8"/>
-    </row>
-    <row r="295" spans="1:7" ht="13">
+      <c r="H294" s="8"/>
+    </row>
+    <row r="295" spans="1:8" ht="13">
       <c r="A295" s="10"/>
     </row>
-    <row r="296" spans="1:7" ht="26">
+    <row r="296" spans="1:8" ht="26">
       <c r="A296" s="10" t="s">
         <v>427</v>
       </c>
@@ -6009,7 +6425,7 @@
     <col min="11" max="11" width="21.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="13">
       <c r="A1" s="11" t="s">
         <v>433</v>
       </c>

--- a/DSA/DSA_List/DSA March_FJP-7.xlsx
+++ b/DSA/DSA_List/DSA March_FJP-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankit\git\DSA\DSA\DSA_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D18070-4837-4D40-986C-AB5F67A4C919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CA8A62-90B3-4611-8AED-26E0D6E5BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="505">
   <si>
     <t>Basics , 24th March 2022</t>
   </si>
@@ -1511,6 +1511,75 @@
   <si>
     <t>/DSA/src/Pattern/Pattern7_9thApril2024.java</t>
   </si>
+  <si>
+    <t>/DSA/src/LinkedList/FindMidOfNode.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/LinkedList/PalindromeLinkedList.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/LinkedList/ReverseLinkedList.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Stack/DuplicateBrackets.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Stack/BalancedBrackets.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Pattern/Pattern5_9thApril2022.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/SpanOfArray.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/FindElementInAnArray.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/ReverseAnArray.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/PrintDecreasing.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/PrintIncreasing.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/PrintIncreasingDecreasing.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/Factorial.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/Power_linear.java</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>/DSA/src/Recursion/PrintZigzag.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Queue/CustomizeQueue.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Queue/DynamicQueue.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/QueueToStackAdapter_PushEfficient</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/DisplayArray.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/DisplayArrayInReverse.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/MaxOfAnArray.java</t>
+  </si>
+  <si>
+    <t>/DSA/src/Array/AllIndicesOfArray.java</t>
+  </si>
 </sst>
 </file>
 
@@ -1519,7 +1588,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1699,8 +1768,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1767,6 +1860,18 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1796,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1892,6 +1997,19 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2113,8 +2231,8 @@
   </sheetPr>
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2124,7 +2242,7 @@
     <col min="4" max="4" width="20.08984375" customWidth="1"/>
     <col min="5" max="5" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2146,134 +2264,134 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="1"/>
+      <c r="D3" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="1"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="1"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="1"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="1"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
@@ -2296,32 +2414,32 @@
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="1"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
@@ -2761,37 +2879,47 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="12.5">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.5">
-      <c r="A43" s="17" t="s">
+      <c r="D42" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="58"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="1"/>
+      <c r="D43" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
@@ -2818,7 +2946,7 @@
         <v>63</v>
       </c>
       <c r="B46" s="16"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="55" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -3073,81 +3201,99 @@
       <c r="G64" s="18"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:8" ht="12.5">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:8" ht="13">
+      <c r="A65" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8" ht="12.5">
-      <c r="A66" s="18" t="s">
+      <c r="B65" s="50"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" ht="13">
+      <c r="A66" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.5">
-      <c r="A67" s="18" t="s">
+      <c r="B66" s="50"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="58"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" ht="13">
+      <c r="A67" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="50"/>
+      <c r="C67" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
+      <c r="D67" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F67" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G67" s="49" t="s">
+        <v>488</v>
+      </c>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="1:8" ht="12.5">
-      <c r="A68" s="18" t="s">
+    <row r="68" spans="1:8" ht="13">
+      <c r="A68" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="50"/>
+      <c r="C68" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.5">
-      <c r="A69" s="18" t="s">
+      <c r="E68" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F68" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G68" s="49" t="s">
+        <v>489</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" ht="13">
+      <c r="A69" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="50"/>
+      <c r="C69" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="1"/>
+      <c r="E69" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G69" s="49" t="s">
+        <v>490</v>
+      </c>
+      <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
@@ -3174,7 +3320,7 @@
         <v>101</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="55" t="s">
         <v>102</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -3190,7 +3336,7 @@
         <v>103</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="55" t="s">
         <v>104</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -3979,286 +4125,343 @@
       <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:8" ht="13">
-      <c r="A130" s="15" t="s">
+      <c r="A130" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
       <c r="E130" s="16"/>
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:8" ht="12.5">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="18" t="s">
+      <c r="B131" s="50"/>
+      <c r="C131" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="1"/>
+      <c r="D131" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" ht="12.5">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="18" t="s">
+      <c r="B132" s="50"/>
+      <c r="C132" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D132" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="1"/>
-    </row>
-    <row r="133" spans="1:8" ht="12.5">
-      <c r="A133" s="18" t="s">
+      <c r="D132" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E132" s="49"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" ht="13">
+      <c r="A133" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="19" t="s">
+      <c r="B133" s="50"/>
+      <c r="C133" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="D133" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F133" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G133" s="49" t="s">
+        <v>491</v>
+      </c>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="1:8" ht="12.5">
-      <c r="A134" s="18" t="s">
+    <row r="134" spans="1:8" ht="13">
+      <c r="A134" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="19" t="s">
+      <c r="B134" s="50"/>
+      <c r="C134" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="1"/>
-    </row>
-    <row r="135" spans="1:8" ht="12.5">
-      <c r="A135" s="18" t="s">
+      <c r="D134" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F134" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G134" s="49" t="s">
+        <v>492</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" ht="13">
+      <c r="A135" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="19" t="s">
+      <c r="B135" s="50"/>
+      <c r="C135" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="1"/>
-    </row>
-    <row r="136" spans="1:8" ht="12.5">
-      <c r="A136" s="18" t="s">
+      <c r="E135" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F135" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G135" s="49" t="s">
+        <v>493</v>
+      </c>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" ht="13">
+      <c r="A136" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="19" t="s">
+      <c r="B136" s="50"/>
+      <c r="C136" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="1"/>
-    </row>
-    <row r="137" spans="1:8" ht="12.5">
-      <c r="A137" s="18" t="s">
+      <c r="D136" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F136" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G136" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" ht="13">
+      <c r="A137" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="19" t="s">
+      <c r="B137" s="50"/>
+      <c r="C137" s="57" t="s">
         <v>201</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="1"/>
+      <c r="D137" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F137" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G137" s="49" t="s">
+        <v>495</v>
+      </c>
+      <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="12.5">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="19" t="s">
+      <c r="B138" s="50"/>
+      <c r="C138" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="1"/>
+      <c r="D138" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A139" s="16"/>
-      <c r="B139" s="16"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
       <c r="E139" s="16"/>
       <c r="F139" s="16"/>
       <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:8" ht="13">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
       <c r="E140" s="16"/>
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:8" ht="12.5">
-      <c r="A141" s="18" t="s">
+    <row r="141" spans="1:8" ht="13">
+      <c r="A141" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="19" t="s">
+      <c r="B141" s="66"/>
+      <c r="C141" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E141" s="18"/>
+      <c r="D141" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" s="65" t="s">
+        <v>496</v>
+      </c>
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="1:8" ht="12.5">
-      <c r="A142" s="18" t="s">
+    <row r="142" spans="1:8" ht="13">
+      <c r="A142" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B142" s="16"/>
-      <c r="C142" s="19" t="s">
+      <c r="B142" s="50"/>
+      <c r="C142" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="1"/>
+      <c r="E142" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F142" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G142" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" ht="12.5">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="18" t="s">
+      <c r="B143" s="50"/>
+      <c r="C143" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="16"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
       <c r="E144" s="16"/>
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
     <row r="145" spans="1:8" ht="13">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
       <c r="E145" s="16"/>
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:8" ht="12.5">
-      <c r="A146" s="18" t="s">
+    <row r="146" spans="1:8" ht="13">
+      <c r="A146" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="19" t="s">
+      <c r="B146" s="50"/>
+      <c r="C146" s="57" t="s">
         <v>214</v>
       </c>
-      <c r="D146" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="1"/>
-    </row>
-    <row r="147" spans="1:8" ht="12.5">
-      <c r="A147" s="18" t="s">
+      <c r="D146" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F146" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G146" s="49" t="s">
+        <v>501</v>
+      </c>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" ht="13">
+      <c r="A147" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="19" t="s">
+      <c r="B147" s="50"/>
+      <c r="C147" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D147" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="1"/>
-    </row>
-    <row r="148" spans="1:8" ht="12.5">
-      <c r="A148" s="18" t="s">
+      <c r="D147" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F147" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G147" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="1:8" ht="13">
+      <c r="A148" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="19" t="s">
+      <c r="B148" s="50"/>
+      <c r="C148" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="D148" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="1"/>
+      <c r="D148" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F148" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G148" s="49" t="s">
+        <v>503</v>
+      </c>
+      <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" ht="12.5">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="19" t="s">
+      <c r="B149" s="61"/>
+      <c r="C149" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E149" s="18"/>
@@ -4267,14 +4470,14 @@
       <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8" ht="12.5">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="19" t="s">
+      <c r="B150" s="61"/>
+      <c r="C150" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E150" s="18"/>
@@ -4282,51 +4485,57 @@
       <c r="G150" s="18"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="1:8" ht="12.5">
-      <c r="A151" s="18" t="s">
+    <row r="151" spans="1:8" ht="13">
+      <c r="A151" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B151" s="16"/>
-      <c r="C151" s="19" t="s">
+      <c r="B151" s="50"/>
+      <c r="C151" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="D151" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="1"/>
+      <c r="D151" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="F151" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="G151" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A152" s="16"/>
-      <c r="B152" s="16"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
+      <c r="A152" s="61"/>
+      <c r="B152" s="61"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
       <c r="E152" s="16"/>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
     <row r="153" spans="1:8" ht="13">
-      <c r="A153" s="15" t="s">
+      <c r="A153" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
+      <c r="B153" s="61"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="61"/>
       <c r="E153" s="16"/>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
     </row>
     <row r="154" spans="1:8" ht="12.5">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="62" t="s">
         <v>226</v>
       </c>
-      <c r="B154" s="16"/>
-      <c r="C154" s="19" t="s">
+      <c r="B154" s="61"/>
+      <c r="C154" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E154" s="18"/>
@@ -4335,14 +4544,14 @@
       <c r="H154" s="1"/>
     </row>
     <row r="155" spans="1:8" ht="12.5">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="B155" s="16"/>
-      <c r="C155" s="19" t="s">
+      <c r="B155" s="61"/>
+      <c r="C155" s="63" t="s">
         <v>229</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E155" s="18"/>
@@ -4351,14 +4560,14 @@
       <c r="H155" s="1"/>
     </row>
     <row r="156" spans="1:8" ht="12.5">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="19" t="s">
+      <c r="B156" s="61"/>
+      <c r="C156" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E156" s="18"/>
@@ -4367,34 +4576,34 @@
       <c r="H156" s="1"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A157" s="16"/>
-      <c r="B157" s="16"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
+      <c r="A157" s="61"/>
+      <c r="B157" s="61"/>
+      <c r="C157" s="61"/>
+      <c r="D157" s="61"/>
       <c r="E157" s="16"/>
       <c r="F157" s="16"/>
       <c r="G157" s="16"/>
     </row>
     <row r="158" spans="1:8" ht="13">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="60" t="s">
         <v>232</v>
       </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
     <row r="159" spans="1:8" ht="12.5">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="62" t="s">
         <v>233</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="19" t="s">
+      <c r="B159" s="61"/>
+      <c r="C159" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="62" t="s">
         <v>235</v>
       </c>
       <c r="E159" s="18"/>
@@ -4403,14 +4612,14 @@
       <c r="H159" s="1"/>
     </row>
     <row r="160" spans="1:8" ht="12.5">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="B160" s="16"/>
-      <c r="C160" s="19" t="s">
+      <c r="B160" s="61"/>
+      <c r="C160" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="62" t="s">
         <v>2</v>
       </c>
       <c r="E160" s="18"/>
@@ -4419,14 +4628,14 @@
       <c r="H160" s="1"/>
     </row>
     <row r="161" spans="1:8" ht="12.5">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="19" t="s">
+      <c r="B161" s="61"/>
+      <c r="C161" s="63" t="s">
         <v>239</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="62" t="s">
         <v>240</v>
       </c>
       <c r="E161" s="18"/>
@@ -4435,14 +4644,14 @@
       <c r="H161" s="1"/>
     </row>
     <row r="162" spans="1:8" ht="12.5">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="62" t="s">
         <v>241</v>
       </c>
-      <c r="B162" s="16"/>
-      <c r="C162" s="19" t="s">
+      <c r="B162" s="61"/>
+      <c r="C162" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="62" t="s">
         <v>240</v>
       </c>
       <c r="E162" s="18"/>
@@ -4451,14 +4660,14 @@
       <c r="H162" s="1"/>
     </row>
     <row r="163" spans="1:8" ht="12.5">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="62" t="s">
         <v>243</v>
       </c>
-      <c r="B163" s="16"/>
-      <c r="C163" s="19" t="s">
+      <c r="B163" s="61"/>
+      <c r="C163" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="62" t="s">
         <v>245</v>
       </c>
       <c r="E163" s="18"/>
@@ -4467,14 +4676,14 @@
       <c r="H163" s="1"/>
     </row>
     <row r="164" spans="1:8" ht="12.5">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="19" t="s">
+      <c r="B164" s="61"/>
+      <c r="C164" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D164" s="16"/>
+      <c r="D164" s="61"/>
       <c r="E164" s="16"/>
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
@@ -5135,9 +5344,11 @@
       <c r="D215" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E215" s="49"/>
-      <c r="F215" s="51" t="s">
+      <c r="E215" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F215" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G215" s="16" t="s">
         <v>465</v>
@@ -5154,9 +5365,11 @@
       <c r="D216" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E216" s="49"/>
-      <c r="F216" s="51" t="s">
+      <c r="E216" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F216" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G216" s="16" t="s">
         <v>466</v>
@@ -5173,9 +5386,11 @@
       <c r="D217" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E217" s="49"/>
-      <c r="F217" s="51" t="s">
+      <c r="E217" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F217" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>466</v>
@@ -5192,9 +5407,11 @@
       <c r="D218" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E218" s="49"/>
-      <c r="F218" s="51" t="s">
+      <c r="E218" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F218" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G218" s="16" t="s">
         <v>466</v>
@@ -5211,9 +5428,11 @@
       <c r="D219" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E219" s="49"/>
-      <c r="F219" s="51" t="s">
+      <c r="E219" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F219" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G219" s="16" t="s">
         <v>467</v>
@@ -5230,9 +5449,11 @@
       <c r="D220" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E220" s="49"/>
-      <c r="F220" s="51" t="s">
+      <c r="E220" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F220" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G220" s="16" t="s">
         <v>468</v>
@@ -5249,9 +5470,11 @@
       <c r="D221" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E221" s="49"/>
-      <c r="F221" s="51" t="s">
+      <c r="E221" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F221" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G221" s="16" t="s">
         <v>462</v>
@@ -5264,9 +5487,11 @@
         <v>318</v>
       </c>
       <c r="D222" s="49"/>
-      <c r="E222" s="49"/>
-      <c r="F222" s="51" t="s">
+      <c r="E222" s="58" t="s">
         <v>459</v>
+      </c>
+      <c r="F222" s="58" t="s">
+        <v>473</v>
       </c>
       <c r="G222" s="16" t="s">
         <v>469</v>
@@ -5318,77 +5543,95 @@
       <c r="G226" s="16"/>
     </row>
     <row r="227" spans="1:7" ht="13">
-      <c r="A227" s="18" t="s">
+      <c r="A227" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="B227" s="16"/>
-      <c r="C227" s="55" t="s">
+      <c r="B227" s="50"/>
+      <c r="C227" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="D227" s="16"/>
-      <c r="E227" s="16"/>
-      <c r="F227" s="51" t="s">
+      <c r="D227" s="49"/>
+      <c r="E227" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="G227" s="16"/>
+      <c r="F227" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G227" s="16" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="228" spans="1:7" ht="13">
-      <c r="A228" s="22" t="s">
+      <c r="A228" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="B228" s="16"/>
-      <c r="C228" s="55" t="s">
+      <c r="B228" s="50"/>
+      <c r="C228" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="51" t="s">
+      <c r="D228" s="49"/>
+      <c r="E228" s="58" t="s">
         <v>459</v>
       </c>
+      <c r="F228" s="58" t="s">
+        <v>473</v>
+      </c>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7" ht="12.5">
-      <c r="A229" s="18" t="s">
+    <row r="229" spans="1:7" ht="13">
+      <c r="A229" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="B229" s="16"/>
-      <c r="C229" s="38" t="s">
+      <c r="B229" s="50"/>
+      <c r="C229" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="D229" s="16"/>
-      <c r="E229" s="16"/>
-      <c r="F229" s="16"/>
+      <c r="D229" s="49"/>
+      <c r="E229" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F229" s="58" t="s">
+        <v>473</v>
+      </c>
       <c r="G229" s="16"/>
     </row>
     <row r="230" spans="1:7" ht="13">
-      <c r="A230" s="18" t="s">
+      <c r="A230" s="54" t="s">
         <v>329</v>
       </c>
-      <c r="B230" s="16"/>
-      <c r="C230" s="55" t="s">
+      <c r="B230" s="50"/>
+      <c r="C230" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="D230" s="16"/>
-      <c r="E230" s="16"/>
-      <c r="F230" s="51" t="s">
+      <c r="D230" s="49"/>
+      <c r="E230" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="G230" s="16"/>
+      <c r="F230" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G230" s="16" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="231" spans="1:7" ht="13">
-      <c r="A231" s="18" t="s">
+      <c r="A231" s="54" t="s">
         <v>331</v>
       </c>
-      <c r="B231" s="16"/>
-      <c r="C231" s="55" t="s">
+      <c r="B231" s="50"/>
+      <c r="C231" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="D231" s="16"/>
-      <c r="E231" s="16"/>
-      <c r="F231" s="51" t="s">
+      <c r="D231" s="49"/>
+      <c r="E231" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="G231" s="16"/>
+      <c r="F231" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G231" s="16" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="232" spans="1:7" ht="12.5">
       <c r="A232" s="18" t="s">
@@ -5632,49 +5875,61 @@
       <c r="F251" s="16"/>
       <c r="G251" s="16"/>
     </row>
-    <row r="252" spans="1:7" ht="12.5">
-      <c r="A252" s="40" t="s">
+    <row r="252" spans="1:7" ht="13">
+      <c r="A252" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="B252" s="16"/>
-      <c r="C252" s="16"/>
-      <c r="D252" s="16"/>
-      <c r="E252" s="16"/>
-      <c r="F252" s="16"/>
-      <c r="G252" s="16"/>
-    </row>
-    <row r="253" spans="1:7" ht="12.5">
-      <c r="A253" s="41" t="s">
+      <c r="B252" s="50"/>
+      <c r="C252" s="57"/>
+      <c r="D252" s="50"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="58"/>
+      <c r="G252" s="50"/>
+    </row>
+    <row r="253" spans="1:7" ht="13">
+      <c r="A253" s="59" t="s">
         <v>363</v>
       </c>
-      <c r="B253" s="16"/>
-      <c r="C253" s="23" t="s">
+      <c r="B253" s="50"/>
+      <c r="C253" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="D253" s="16"/>
-      <c r="E253" s="16"/>
-      <c r="F253" s="16"/>
-      <c r="G253" s="16"/>
-    </row>
-    <row r="254" spans="1:7" ht="12.5">
-      <c r="A254" s="42" t="s">
+      <c r="D253" s="50"/>
+      <c r="E253" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F253" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G253" s="50" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="13">
+      <c r="A254" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="B254" s="16"/>
-      <c r="C254" s="23" t="s">
+      <c r="B254" s="50"/>
+      <c r="C254" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D254" s="16"/>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-      <c r="G254" s="16"/>
+      <c r="D254" s="50"/>
+      <c r="E254" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F254" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G254" s="50" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="255" spans="1:7" ht="12.5">
       <c r="A255" s="42" t="s">
         <v>367</v>
       </c>
       <c r="B255" s="16"/>
-      <c r="C255" s="23" t="s">
+      <c r="C255" s="55" t="s">
         <v>368</v>
       </c>
       <c r="D255" s="16"/>
@@ -5700,7 +5955,7 @@
         <v>371</v>
       </c>
       <c r="B257" s="16"/>
-      <c r="C257" s="23" t="s">
+      <c r="C257" s="55" t="s">
         <v>372</v>
       </c>
       <c r="D257" s="16"/>
@@ -5728,55 +5983,73 @@
       <c r="F259" s="16"/>
       <c r="G259" s="16"/>
     </row>
-    <row r="260" spans="1:7" ht="12.5">
-      <c r="A260" s="23" t="s">
+    <row r="260" spans="1:7" ht="13">
+      <c r="A260" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="B260" s="16"/>
-      <c r="C260" s="22"/>
-      <c r="D260" s="16"/>
-      <c r="E260" s="16"/>
-      <c r="F260" s="16"/>
-      <c r="G260" s="16"/>
-    </row>
-    <row r="261" spans="1:7" ht="12.5">
-      <c r="A261" s="23" t="s">
+      <c r="B260" s="50"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="50"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="58"/>
+      <c r="G260" s="50"/>
+    </row>
+    <row r="261" spans="1:7" ht="13">
+      <c r="A261" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="B261" s="16"/>
-      <c r="C261" s="23" t="s">
+      <c r="B261" s="50"/>
+      <c r="C261" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="D261" s="16"/>
-      <c r="E261" s="16"/>
-      <c r="F261" s="16"/>
-      <c r="G261" s="16"/>
-    </row>
-    <row r="262" spans="1:7" ht="12.5">
-      <c r="A262" s="23" t="s">
+      <c r="D261" s="50"/>
+      <c r="E261" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F261" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G261" s="50" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="13">
+      <c r="A262" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="B262" s="16"/>
-      <c r="C262" s="23" t="s">
+      <c r="B262" s="50"/>
+      <c r="C262" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="D262" s="16"/>
-      <c r="E262" s="16"/>
-      <c r="F262" s="16"/>
-      <c r="G262" s="16"/>
-    </row>
-    <row r="263" spans="1:7" ht="12.5">
-      <c r="A263" s="22" t="s">
+      <c r="D262" s="50"/>
+      <c r="E262" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F262" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G262" s="50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="13">
+      <c r="A263" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="B263" s="16"/>
-      <c r="C263" s="23" t="s">
+      <c r="B263" s="50"/>
+      <c r="C263" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="D263" s="16"/>
-      <c r="E263" s="16"/>
-      <c r="F263" s="16"/>
-      <c r="G263" s="16"/>
+      <c r="D263" s="50"/>
+      <c r="E263" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="F263" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G263" s="50" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="264" spans="1:7" ht="12.5">
       <c r="A264" s="22" t="s">
@@ -6355,6 +6628,7 @@
     <hyperlink ref="C292" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId190"/>
 </worksheet>
 </file>
 
